--- a/MKS_Worksheet.xlsx
+++ b/MKS_Worksheet.xlsx
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50:X50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
     <col min="25" max="16384" width="11.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>54</v>
       </c>
@@ -625,7 +625,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="4" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -693,402 +693,501 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" ref="A7:A12" si="0">MAX(C7:CY7)</f>
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="I12">
         <v>-5</v>
       </c>
-      <c r="J12" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="J12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ref="A14:A20" si="1">MAX(C14:CY14)</f>
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>-1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="1">
-        <v>20</v>
-      </c>
-      <c r="P17" s="1">
-        <v>-10</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>-10</v>
-      </c>
-      <c r="X17" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>-1</v>
+      </c>
+      <c r="Q17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>-10</v>
-      </c>
-      <c r="R18" s="1">
-        <v>-10</v>
-      </c>
-      <c r="X18" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>-1</v>
+      </c>
+      <c r="R18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="1">
-        <v>20</v>
-      </c>
-      <c r="P19" s="1">
-        <v>-10</v>
-      </c>
-      <c r="R19" s="1">
-        <v>-10</v>
-      </c>
-      <c r="X19" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>-1</v>
+      </c>
+      <c r="R19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="21" spans="1:24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>MAX(C22:CY22)</f>
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>MAX(C23:CY23)</f>
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="1">
-        <v>-10</v>
-      </c>
-      <c r="P23" s="1">
-        <v>20</v>
-      </c>
-      <c r="T23" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="L23">
+        <v>-1</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>MAX(C24:CY24)</f>
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="R24" s="1">
-        <v>20</v>
-      </c>
-      <c r="S24" s="1">
-        <v>-10</v>
-      </c>
-      <c r="T24" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>-1</v>
+      </c>
+      <c r="T24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>MAX(C25:CY25)</f>
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="1">
-        <v>-10</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>20</v>
-      </c>
-      <c r="S25" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="L25">
+        <v>-1</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" ref="A27:A32" si="2">MAX(C27:CY27)</f>
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="1">
-        <v>20</v>
-      </c>
-      <c r="U28" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
         <v>41</v>
       </c>
-      <c r="K29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
         <v>42</v>
       </c>
-      <c r="S30" s="1">
-        <v>20</v>
-      </c>
-      <c r="U30" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
         <v>43</v>
       </c>
-      <c r="T31" s="1">
-        <v>20</v>
-      </c>
-      <c r="U31" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="B32" t="s">
         <v>44</v>
       </c>
       <c r="E32">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="N32">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="O32">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="P32">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="Q32">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="R32">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="S32">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="T32">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="U32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>45</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="X33">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>MAX(C36:CY36)</f>
+        <v>-20</v>
+      </c>
       <c r="B36" t="s">
         <v>47</v>
       </c>
@@ -1096,10 +1195,14 @@
         <v>-20</v>
       </c>
       <c r="N36">
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>MAX(C37:CY37)</f>
+        <v>-20</v>
+      </c>
       <c r="B37" t="s">
         <v>48</v>
       </c>
@@ -1107,10 +1210,14 @@
         <v>-20</v>
       </c>
       <c r="M37">
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>MAX(C38:CY38)</f>
+        <v>-5</v>
+      </c>
       <c r="B38" t="s">
         <v>49</v>
       </c>
@@ -1124,7 +1231,11 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="39" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>MAX(C39:CY39)</f>
+        <v>25</v>
+      </c>
       <c r="B39" t="s">
         <v>50</v>
       </c>
@@ -1180,9 +1291,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>55</v>
       </c>
@@ -1198,7 +1309,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>57</v>
       </c>
@@ -1214,8 +1325,8 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="2:24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>51</v>
       </c>
@@ -1283,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>52</v>
       </c>
@@ -1306,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -1339,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -1351,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>56</v>
       </c>
@@ -1380,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -1392,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U48">
         <v>1</v>
@@ -1416,23 +1527,23 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:24" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="D50" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E50" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F50" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2">
         <v>1</v>
@@ -1447,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="2">
         <v>0</v>
@@ -1459,22 +1570,22 @@
         <v>0</v>
       </c>
       <c r="P50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="2">
         <v>0</v>
@@ -1560,559 +1671,559 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <f t="shared" ref="A55:A60" si="0">SUM(C55:CY55)</f>
+        <f t="shared" ref="A55:A60" si="3">SUM(C55:CY55)</f>
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" ref="D55:X55" si="1">D7*D50</f>
+        <f t="shared" ref="D55:X55" si="4">D7*D50</f>
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="1"/>
-        <v>-6</v>
+        <f t="shared" si="4"/>
+        <v>-10</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <f t="shared" si="0"/>
-        <v>-6</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" ref="D56:X56" si="2">D8*D50</f>
-        <v>0</v>
+        <f t="shared" ref="D56:X56" si="5">D8*D50</f>
+        <v>10</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="2"/>
-        <v>-6</v>
+        <f t="shared" si="5"/>
+        <v>-10</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <f t="shared" si="0"/>
-        <v>-8</v>
+        <f t="shared" si="3"/>
+        <v>-5</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" ref="D57:X57" si="3">D9*D50</f>
-        <v>0</v>
+        <f t="shared" ref="D57:X57" si="6">D9*D50</f>
+        <v>10</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="3"/>
-        <v>-20</v>
+        <f t="shared" si="6"/>
+        <v>-25</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" ref="D58:X58" si="4">D10*D50</f>
-        <v>0</v>
+        <f t="shared" ref="D58:X58" si="7">D10*D50</f>
+        <v>10</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="4"/>
-        <v>-6</v>
+        <f t="shared" si="7"/>
+        <v>-10</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" ref="D59:X59" si="5">D11*D50</f>
-        <v>0</v>
+        <f t="shared" ref="D59:X59" si="8">D11*D50</f>
+        <v>-10</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" ref="D60:X60" si="6">D12*D50</f>
-        <v>0</v>
+        <f t="shared" ref="D60:X60" si="9">D12*D50</f>
+        <v>-10</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="6"/>
-        <v>-6</v>
+        <f t="shared" si="9"/>
+        <v>-10</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="6"/>
-        <v>-6</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="9"/>
+        <v>25</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2121,652 +2232,652 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <f t="shared" ref="A62:A68" si="7">SUM(C62:CY62)</f>
+        <f t="shared" ref="A62:A68" si="10">SUM(C62:CY62)</f>
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" ref="D62:X62" si="8">D14*D50</f>
+        <f t="shared" ref="D62:X62" si="11">D14*D50</f>
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" ref="D63:X63" si="9">D15*D50</f>
+        <f t="shared" ref="D63:X63" si="12">D15*D50</f>
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="9"/>
-        <v>-6</v>
+        <f t="shared" si="12"/>
+        <v>-10</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" ref="D64:X64" si="10">D16*D50</f>
-        <v>0</v>
+        <f t="shared" ref="D64:X64" si="13">D16*D50</f>
+        <v>-10</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" ref="D65:X65" si="11">D17*D50</f>
+        <f t="shared" ref="D65:X65" si="14">D17*D50</f>
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>-1</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>-1</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X65" s="1">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" ref="D66:X66" si="12">D18*D50</f>
+        <f t="shared" ref="D66:X66" si="15">D18*D50</f>
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>-1</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>-1</v>
       </c>
       <c r="S66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X66" s="1">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ref="D67:X67" si="13">D19*D50</f>
+        <f t="shared" ref="D67:X67" si="16">D19*D50</f>
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-1</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-1</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X67" s="1">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" ref="D68:X68" si="14">D20*D50</f>
+        <f t="shared" ref="D68:X68" si="17">D20*D50</f>
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -2782,87 +2893,87 @@
         <v>35</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" ref="D70:X70" si="15">D22*D50</f>
+        <f t="shared" ref="D70:X70" si="18">D22*D50</f>
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2875,87 +2986,87 @@
         <v>36</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" ref="D71:X71" si="16">D23*D50</f>
+        <f t="shared" ref="D71:X71" si="19">D23*D50</f>
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>-1</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P71" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="Q71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>-1</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -2968,87 +3079,87 @@
         <v>37</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" ref="D72:X72" si="17">D24*D50</f>
+        <f t="shared" ref="D72:X72" si="20">D24*D50</f>
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="S72" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>-1</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>-1</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -3061,87 +3172,87 @@
         <v>38</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" ref="D73:X73" si="18">D25*D50</f>
+        <f t="shared" ref="D73:X73" si="21">D25*D50</f>
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>-1</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q73" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>2</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S73" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>-1</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -3150,566 +3261,566 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <f t="shared" ref="A75:A81" si="19">SUM(C75:CY75)</f>
+        <f t="shared" ref="A75:A81" si="22">SUM(C75:CY75)</f>
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" ref="D75:X75" si="20">D27*D50</f>
+        <f t="shared" ref="D75:X75" si="23">D27*D50</f>
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" ref="D76:X76" si="21">D28*D50</f>
+        <f t="shared" ref="D76:X76" si="24">D28*D50</f>
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>2</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>-2</v>
       </c>
       <c r="V76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" ref="D77:X77" si="22">D29*D50</f>
+        <f t="shared" ref="D77:X77" si="25">D29*D50</f>
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" ref="D78:X78" si="23">D30*D50</f>
+        <f t="shared" ref="D78:X78" si="26">D30*D50</f>
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-2</v>
       </c>
       <c r="V78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" ref="D79:X79" si="24">D31*D50</f>
+        <f t="shared" ref="D79:X79" si="27">D31*D50</f>
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>2</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>-2</v>
       </c>
       <c r="V79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <f t="shared" si="19"/>
-        <v>-20</v>
+        <f t="shared" si="22"/>
+        <v>3.1999999999999993</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" ref="D80:X80" si="25">D32*D50</f>
+        <f t="shared" ref="D80:X80" si="28">D32*D50</f>
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="25"/>
-        <v>-6</v>
+        <f t="shared" si="28"/>
+        <v>-1</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="25"/>
-        <v>-6</v>
+        <f t="shared" si="28"/>
+        <v>-1</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="25"/>
-        <v>-6</v>
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="25"/>
-        <v>-1</v>
+        <f t="shared" si="28"/>
+        <v>-0.1</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J80" s="1">
-        <f t="shared" si="25"/>
-        <v>-1</v>
+        <f t="shared" si="28"/>
+        <v>-0.1</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-0.1</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O80" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P80" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-0.1</v>
       </c>
       <c r="Q80" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-0.1</v>
       </c>
       <c r="R80" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-0.1</v>
       </c>
       <c r="S80" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-0.1</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>-0.1</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>6</v>
       </c>
       <c r="V80" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W80" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X80" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <f t="shared" si="19"/>
-        <v>5</v>
+        <f t="shared" si="22"/>
+        <v>-3.1999999999999993</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>45</v>
@@ -3719,84 +3830,84 @@
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" ref="E81:X81" si="26">E33*E50</f>
-        <v>6</v>
+        <f t="shared" ref="E81:X81" si="29">E33*E50</f>
+        <v>1</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="26"/>
-        <v>6</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="26"/>
-        <v>6</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="26"/>
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>0.1</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" si="26"/>
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>0.1</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>0.1</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O81" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P81" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>0.1</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>0.1</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>0.1</v>
       </c>
       <c r="S81" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>0.1</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>0.1</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V81" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W81" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="X81" s="1">
-        <f t="shared" si="26"/>
-        <v>-15</v>
+        <f t="shared" si="29"/>
+        <v>-6</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
@@ -3815,71 +3926,71 @@
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" ref="E83:U83" si="27">E35*E50</f>
+        <f t="shared" ref="E83:U83" si="30">E35*E50</f>
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="T83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V83" s="1">
@@ -3908,71 +4019,71 @@
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" ref="E84:U84" si="28">E36*E50</f>
+        <f t="shared" ref="E84:U84" si="31">E36*E50</f>
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J84" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V84" s="1">
@@ -4001,71 +4112,71 @@
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" ref="E85:U85" si="29">E37*E50</f>
+        <f t="shared" ref="E85:U85" si="32">E37*E50</f>
         <v>0</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I85" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J85" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L85" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P85" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q85" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S85" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T85" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V85" s="1">
@@ -4084,7 +4195,7 @@
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <f>SUM(C86:CY86)</f>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>49</v>
@@ -4094,71 +4205,71 @@
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" ref="E86:U86" si="30">E38*E50</f>
+        <f t="shared" ref="E86:U86" si="33">E38*E50</f>
         <v>0</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="30"/>
-        <v>-30</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J86" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P86" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S86" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T86" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V86" s="1">
@@ -4177,7 +4288,7 @@
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <f>SUM(C87:CY87)</f>
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>50</v>
@@ -4187,72 +4298,72 @@
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" ref="E87:U87" si="31">E39*E50</f>
-        <v>-6</v>
+        <f t="shared" ref="E87:U87" si="34">E39*E50</f>
+        <v>-10</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="31"/>
-        <v>-6</v>
+        <f t="shared" si="34"/>
+        <v>-10</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="31"/>
-        <v>-6</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>25</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-1</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>-1</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>-1</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>-1</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>-1</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>-1</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>-1</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>-1</v>
       </c>
       <c r="V87" s="1">
         <f>V39*V50</f>

--- a/MKS_Worksheet.xlsx
+++ b/MKS_Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="27255" windowHeight="13875"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="27255" windowHeight="13875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -611,11 +611,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C26" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C32" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K51" sqref="K51"/>
+      <selection pane="bottomRight" activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,91 +1732,91 @@
         <v>3</v>
       </c>
       <c r="E52">
-        <f>E51*EFF</f>
+        <f t="shared" ref="E52:Z52" si="3">E51*EFF</f>
         <v>1.5</v>
       </c>
       <c r="F52">
-        <f>F51*EFF</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="G52">
-        <f>G51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H52">
-        <f>H51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I52">
-        <f>I51*EFF</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="J52">
-        <f>J51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K52">
-        <f>K51*EFF</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="L52">
-        <f>L51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M52">
-        <f>M51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N52">
-        <f>N51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O52">
-        <f>O51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P52">
-        <f>P51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f>Q51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R52">
-        <f>R51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S52">
-        <f>S51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T52">
-        <f>T51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U52">
-        <f>U51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V52">
-        <f>V51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W52">
-        <f>W51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X52">
-        <f>X51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y52">
-        <f>Y51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z52">
-        <f>Z51*EFF</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1916,607 +1916,607 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <f t="shared" ref="A57:A62" si="3">SUM(C57:CZ57)</f>
+        <f t="shared" ref="A57:A62" si="4">SUM(C57:CZ57)</f>
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" ref="D57:Z57" si="4">D7*D52</f>
+        <f t="shared" ref="D57:Z57" si="5">D7*D52</f>
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" ref="H57" si="5">H7*H52</f>
+        <f t="shared" ref="H57" si="6">H7*H52</f>
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" ref="D58:Z58" si="6">D8*D52</f>
+        <f t="shared" ref="D58:Z58" si="7">D8*D52</f>
         <v>3</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" ref="H58" si="7">H8*H52</f>
+        <f t="shared" ref="H58" si="8">H8*H52</f>
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-31.5</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" ref="D59:Z59" si="8">D9*D52</f>
+        <f t="shared" ref="D59:Z59" si="9">D9*D52</f>
         <v>3</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" ref="H59" si="9">H9*H52</f>
+        <f t="shared" ref="H59" si="10">H9*H52</f>
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-37.5</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" ref="D60:Z60" si="10">D10*D52</f>
+        <f t="shared" ref="D60:Z60" si="11">D10*D52</f>
         <v>3</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-3</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" ref="H60" si="11">H10*H52</f>
+        <f t="shared" ref="H60" si="12">H10*H52</f>
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" ref="D61:Z61" si="12">D11*D52</f>
+        <f t="shared" ref="D61:Z61" si="13">D11*D52</f>
         <v>-3</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" ref="H61" si="13">H11*H52</f>
+        <f t="shared" ref="H61" si="14">H11*H52</f>
         <v>0</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31.5</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" ref="D62:Z62" si="14">D12*D52</f>
+        <f t="shared" ref="D62:Z62" si="15">D12*D52</f>
         <v>-3</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-3</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" ref="H62" si="15">H12*H52</f>
+        <f t="shared" ref="H62" si="16">H12*H52</f>
         <v>0</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37.5</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z62" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -2525,708 +2525,708 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <f t="shared" ref="A64:A70" si="16">SUM(C64:CZ64)</f>
+        <f t="shared" ref="A64:A70" si="17">SUM(C64:CZ64)</f>
         <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" ref="D64:Z64" si="17">D14*D52</f>
+        <f t="shared" ref="D64:Z64" si="18">D14*D52</f>
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" ref="H64" si="18">H14*H52</f>
+        <f t="shared" ref="H64" si="19">H14*H52</f>
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" ref="D65:Z65" si="19">D15*D52</f>
+        <f t="shared" ref="D65:Z65" si="20">D15*D52</f>
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" ref="H65" si="20">H15*H52</f>
+        <f t="shared" ref="H65" si="21">H15*H52</f>
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="X65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" ref="D66:Z66" si="21">D16*D52</f>
+        <f t="shared" ref="D66:Z66" si="22">D16*D52</f>
         <v>-3</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" ref="H66" si="22">H16*H52</f>
+        <f t="shared" ref="H66" si="23">H16*H52</f>
         <v>0</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ref="D67:Z67" si="23">D17*D52</f>
+        <f t="shared" ref="D67:Z67" si="24">D17*D52</f>
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" ref="H67" si="24">H17*H52</f>
+        <f t="shared" ref="H67" si="25">H17*H52</f>
         <v>0</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" ref="D68:Z68" si="25">D18*D52</f>
+        <f t="shared" ref="D68:Z68" si="26">D18*D52</f>
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" ref="H68" si="26">H18*H52</f>
+        <f t="shared" ref="H68" si="27">H18*H52</f>
         <v>0</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z68" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" ref="D69:Z69" si="27">D19*D52</f>
+        <f t="shared" ref="D69:Z69" si="28">D19*D52</f>
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" ref="H69" si="28">H19*H52</f>
+        <f t="shared" ref="H69" si="29">H19*H52</f>
         <v>0</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Z69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" ref="D70:Z70" si="29">D20*D52</f>
+        <f t="shared" ref="D70:Z70" si="30">D20*D52</f>
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" ref="H70" si="30">H20*H52</f>
+        <f t="shared" ref="H70" si="31">H20*H52</f>
         <v>0</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="X70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Y70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -3242,95 +3242,95 @@
         <v>35</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" ref="D72:Z72" si="31">D22*D52</f>
+        <f t="shared" ref="D72:Z72" si="32">D22*D52</f>
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" ref="H72" si="32">H22*H52</f>
+        <f t="shared" ref="H72" si="33">H22*H52</f>
         <v>0</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Y72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Z72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -3343,95 +3343,95 @@
         <v>36</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" ref="D73:Z73" si="33">D23*D52</f>
+        <f t="shared" ref="D73:Z73" si="34">D23*D52</f>
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" ref="H73" si="34">H23*H52</f>
+        <f t="shared" ref="H73" si="35">H23*H52</f>
         <v>0</v>
       </c>
       <c r="I73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="V73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Z73" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -3444,95 +3444,95 @@
         <v>37</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" ref="D74:Z74" si="35">D24*D52</f>
+        <f t="shared" ref="D74:Z74" si="36">D24*D52</f>
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" ref="H74" si="36">H24*H52</f>
+        <f t="shared" ref="H74" si="37">H24*H52</f>
         <v>0</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -3545,95 +3545,95 @@
         <v>38</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" ref="D75:Z75" si="37">D25*D52</f>
+        <f t="shared" ref="D75:Z75" si="38">D25*D52</f>
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" ref="H75" si="38">H25*H52</f>
+        <f t="shared" ref="H75" si="39">H25*H52</f>
         <v>0</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="S75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Y75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Z75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -3642,708 +3642,708 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <f t="shared" ref="A77:A83" si="39">SUM(C77:CZ77)</f>
+        <f t="shared" ref="A77:A83" si="40">SUM(C77:CZ77)</f>
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" ref="D77:Z77" si="40">D27*D52</f>
+        <f t="shared" ref="D77:Z77" si="41">D27*D52</f>
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" ref="H77" si="41">H27*H52</f>
+        <f t="shared" ref="H77" si="42">H27*H52</f>
         <v>0</v>
       </c>
       <c r="I77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="T77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="V77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z77" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" ref="D78:Z78" si="42">D28*D52</f>
+        <f t="shared" ref="D78:Z78" si="43">D28*D52</f>
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" ref="H78" si="43">H28*H52</f>
+        <f t="shared" ref="H78" si="44">H28*H52</f>
         <v>0</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="W78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="X78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Y78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Z78" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" ref="D79:Z79" si="44">D29*D52</f>
+        <f t="shared" ref="D79:Z79" si="45">D29*D52</f>
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" ref="H79" si="45">H29*H52</f>
+        <f t="shared" ref="H79" si="46">H29*H52</f>
         <v>0</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="J79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="O79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="P79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Q79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="R79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="S79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Y79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Z79" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" ref="D80:Z80" si="46">D30*D52</f>
+        <f t="shared" ref="D80:Z80" si="47">D30*D52</f>
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" ref="H80" si="47">H30*H52</f>
+        <f t="shared" ref="H80" si="48">H30*H52</f>
         <v>0</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="P80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="R80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="S80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="W80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="X80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" ref="D81:Z81" si="48">D31*D52</f>
+        <f t="shared" ref="D81:Z81" si="49">D31*D52</f>
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" ref="H81" si="49">H31*H52</f>
+        <f t="shared" ref="H81" si="50">H31*H52</f>
         <v>0</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="P81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="S81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="V81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="W81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="X81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Y81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-0.60000000000000009</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" ref="D82:Z82" si="50">D32*D52</f>
+        <f t="shared" ref="D82:Z82" si="51">D32*D52</f>
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-0.15000000000000002</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-0.15000000000000002</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" ref="H82" si="51">H32*H52</f>
+        <f t="shared" ref="H82" si="52">H32*H52</f>
         <v>0</v>
       </c>
       <c r="I82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-0.15000000000000002</v>
       </c>
       <c r="J82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-0.15000000000000002</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Q82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="R82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="S82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="V82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Y82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Z82" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" ref="D83:Z83" si="52">D33*D52</f>
+        <f t="shared" ref="D83:Z83" si="53">D33*D52</f>
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" ref="H83" si="53">H33*H52</f>
+        <f t="shared" ref="H83" si="54">H33*H52</f>
         <v>0</v>
       </c>
       <c r="I83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="J83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="P83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Q83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="S83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="V83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="X83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Z83" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -4359,95 +4359,95 @@
         <v>46</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" ref="D85:Z85" si="54">D35*D52</f>
+        <f t="shared" ref="D85:Z85" si="55">D35*D52</f>
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" ref="H85" si="55">H35*H52</f>
+        <f t="shared" ref="H85" si="56">H35*H52</f>
         <v>0</v>
       </c>
       <c r="I85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="J85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="L85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="P85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="S85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="V85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="W85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="X85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Y85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Z85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -4460,95 +4460,95 @@
         <v>47</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" ref="D86:Z86" si="56">D36*D52</f>
+        <f t="shared" ref="D86:Z86" si="57">D36*D52</f>
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" ref="H86" si="57">H36*H52</f>
+        <f t="shared" ref="H86" si="58">H36*H52</f>
         <v>0</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="J86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="P86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="S86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="T86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="X86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="Y86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="Z86" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
@@ -4561,95 +4561,95 @@
         <v>48</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" ref="D87:Z87" si="58">D37*D52</f>
+        <f t="shared" ref="D87:Z87" si="59">D37*D52</f>
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" ref="H87" si="59">H37*H52</f>
+        <f t="shared" ref="H87" si="60">H37*H52</f>
         <v>0</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="V87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="W87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="X87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Z87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
@@ -4662,95 +4662,95 @@
         <v>49</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" ref="D88:Z88" si="60">D38*D52</f>
+        <f t="shared" ref="D88:Z88" si="61">D38*D52</f>
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" ref="H88" si="61">H38*H52</f>
+        <f t="shared" ref="H88" si="62">H38*H52</f>
         <v>0</v>
       </c>
       <c r="I88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="J88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="P88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="S88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="V88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="W88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="X88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Y88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Z88" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
@@ -4763,95 +4763,95 @@
         <v>50</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" ref="D89:Z89" si="62">D39*D52</f>
+        <f t="shared" ref="D89:Z89" si="63">D39*D52</f>
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-1.5</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-1.5</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" ref="H89" si="63">H39*H52</f>
+        <f t="shared" ref="H89" si="64">H39*H52</f>
         <v>0</v>
       </c>
       <c r="I89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>37.5</v>
       </c>
       <c r="J89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-1.5</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="P89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="R89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="S89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="T89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="V89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="W89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="X89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Y89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Z89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
     </row>
@@ -4876,14 +4876,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="H28:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f>1.7/2</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f>1.75/2</f>
+        <v>0.875</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MKS_Worksheet.xlsx
+++ b/MKS_Worksheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
   <si>
     <t>Kerbal</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>EFF</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>CarbonDioxide</t>
   </si>
 </sst>
 </file>
@@ -612,10 +618,10 @@
   <dimension ref="A2:Z89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C32" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L51" sqref="L51"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,8 +907,8 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>-1</v>
+      <c r="J15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
@@ -2625,9 +2631,9 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="A65" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>29</v>
@@ -2656,9 +2662,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65" s="1" t="e">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K65" s="1">
         <f t="shared" si="20"/>
@@ -4876,14 +4882,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H28:H29"/>
+  <dimension ref="B7:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>1.798</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>304.27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>261.77999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>1.98</v>
+      </c>
+    </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H28">
         <f>1.7/2</f>

--- a/MKS_Worksheet.xlsx
+++ b/MKS_Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15105" windowHeight="1950" tabRatio="434"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15105" windowHeight="1950" tabRatio="434" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="144">
   <si>
     <t>Kerbal</t>
   </si>
@@ -466,6 +466,18 @@
   </si>
   <si>
     <t>MEP-Refining</t>
+  </si>
+  <si>
+    <t>Assembly Plant</t>
+  </si>
+  <si>
+    <t>Log Hub</t>
+  </si>
+  <si>
+    <t>ScanOMatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expandos </t>
   </si>
 </sst>
 </file>
@@ -572,7 +584,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -595,6 +607,7 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -900,13 +913,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF122"/>
+  <dimension ref="A1:AH122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="AC7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,11 +930,11 @@
     <col min="4" max="16" width="16.7109375" style="7" customWidth="1"/>
     <col min="17" max="22" width="16.7109375" style="1" customWidth="1"/>
     <col min="23" max="23" width="16.7109375" style="7" customWidth="1"/>
-    <col min="24" max="31" width="16.7109375" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.28515625" style="1"/>
+    <col min="24" max="34" width="16.7109375" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="11.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
@@ -940,7 +953,7 @@
       <c r="O1" s="6"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="6"/>
@@ -957,7 +970,7 @@
       <c r="O2" s="6"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="17">
         <f t="shared" ref="D3:AE3" si="0">SUM(D7:D54)</f>
         <v>0</v>
@@ -1070,269 +1083,308 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF3" s="17">
+        <f t="shared" ref="AF3:AG3" si="1">SUM(AF7:AF54)</f>
+        <v>259200</v>
+      </c>
+      <c r="AG3" s="17">
+        <f t="shared" si="1"/>
+        <v>4398</v>
+      </c>
+      <c r="AH3" s="17">
+        <f t="shared" ref="AH3" si="2">SUM(AH7:AH54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="22" t="s">
         <v>41</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AD4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AE4" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="22" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="V5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE5" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF5" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG5" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="22" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="X6" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="Y6" s="7" t="s">
+      <c r="Y6" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="Z6" s="7" t="s">
+      <c r="Z6" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="AA6" s="7" t="s">
+      <c r="AA6" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="AB6" s="7" t="s">
+      <c r="AB6" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="AC6" s="7" t="s">
+      <c r="AC6" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="AD6" s="7" t="s">
+      <c r="AD6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AE6" s="22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF6" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG6" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH6" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1341,111 +1393,123 @@
         <v>-25</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" ref="F7:AE7" si="1">F18*-1</f>
+        <f t="shared" ref="F7:AE7" si="3">F18*-1</f>
         <v>1</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AA7" s="7">
-        <f t="shared" ref="AA7:AC7" si="2">AA18*-1</f>
+        <f t="shared" ref="AA7:AC7" si="4">AA18*-1</f>
         <v>1</v>
       </c>
       <c r="AB7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AC7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE7" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="7">
+        <f t="shared" ref="AF7:AG7" si="5">AF18*-1</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="7">
+        <f t="shared" ref="AH7" si="6">AH18*-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>91</v>
@@ -1477,7 +1541,7 @@
       </c>
       <c r="W8" s="8"/>
     </row>
-    <row r="9" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
@@ -1496,9 +1560,9 @@
       <c r="P9" s="8"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" ref="A10:A19" si="3">MAX(C10:DE10)</f>
+        <f t="shared" ref="A10:A19" si="7">MAX(C10:DE10)</f>
         <v>1</v>
       </c>
       <c r="B10" t="s">
@@ -1523,9 +1587,9 @@
       <c r="P10" s="8"/>
       <c r="W10" s="8"/>
     </row>
-    <row r="11" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="B11" t="s">
@@ -1556,9 +1620,9 @@
       <c r="P11" s="8"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B12" t="s">
@@ -1587,9 +1651,9 @@
       <c r="P12" s="8"/>
       <c r="W12" s="8"/>
     </row>
-    <row r="13" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="B13" t="s">
@@ -1624,9 +1688,9 @@
       <c r="P13" s="8"/>
       <c r="W13" s="8"/>
     </row>
-    <row r="14" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-20</v>
       </c>
       <c r="B14" t="s">
@@ -1649,9 +1713,9 @@
       <c r="P14" s="8"/>
       <c r="W14" s="8"/>
     </row>
-    <row r="15" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-20</v>
       </c>
       <c r="B15" t="s">
@@ -1674,9 +1738,9 @@
       <c r="P15" s="8"/>
       <c r="W15" s="8"/>
     </row>
-    <row r="16" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-5</v>
       </c>
       <c r="B16" t="s">
@@ -1705,9 +1769,9 @@
       </c>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="B17" t="s">
@@ -1730,9 +1794,9 @@
       <c r="P17" s="8"/>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="B18" t="s">
@@ -1813,9 +1877,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="B19" t="s">
@@ -1888,8 +1952,10 @@
       <c r="AD19" s="8"/>
       <c r="AE19" s="8"/>
       <c r="AF19" s="8"/>
-    </row>
-    <row r="20" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+    </row>
+    <row r="20" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1905,7 +1971,7 @@
       <c r="P20" s="8"/>
       <c r="W20" s="8"/>
     </row>
-    <row r="21" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
@@ -1927,9 +1993,9 @@
       <c r="P21" s="8"/>
       <c r="W21" s="8"/>
     </row>
-    <row r="22" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" ref="A22:A32" si="4">MAX(C22:DE22)</f>
+        <f t="shared" ref="A22:A32" si="8">MAX(C22:DE22)</f>
         <v>3</v>
       </c>
       <c r="B22" t="s">
@@ -1957,9 +2023,9 @@
       <c r="P22" s="8"/>
       <c r="W22" s="8"/>
     </row>
-    <row r="23" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="B23" t="s">
@@ -1986,9 +2052,9 @@
       <c r="P23" s="8"/>
       <c r="W23" s="8"/>
     </row>
-    <row r="24" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="B24" t="s">
@@ -2025,9 +2091,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="B25" t="s">
@@ -2066,9 +2132,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="B26" t="s">
@@ -2107,9 +2173,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="B27" t="s">
@@ -2140,9 +2206,9 @@
       </c>
       <c r="W27" s="8"/>
     </row>
-    <row r="28" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="B28" t="s">
@@ -2167,9 +2233,9 @@
       <c r="P28" s="8"/>
       <c r="W28" s="8"/>
     </row>
-    <row r="29" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="B29" t="s">
@@ -2191,11 +2257,15 @@
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="W29" s="8"/>
-    </row>
-    <row r="30" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG29">
+        <f>3*0.9</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <f t="shared" si="8"/>
+        <v>3.3000000000000003</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
@@ -2216,10 +2286,14 @@
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="W30" s="8"/>
-    </row>
-    <row r="31" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG30">
+        <f>3*1.1</f>
+        <v>3.3000000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1E-3</v>
       </c>
       <c r="B31" t="s">
@@ -2242,9 +2316,9 @@
       <c r="P31" s="8"/>
       <c r="W31" s="8"/>
     </row>
-    <row r="32" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
       <c r="B32" t="s">
@@ -2267,7 +2341,7 @@
       <c r="P32" s="8"/>
       <c r="W32" s="8"/>
     </row>
-    <row r="33" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -2283,7 +2357,7 @@
       <c r="P33" s="8"/>
       <c r="W33" s="8"/>
     </row>
-    <row r="34" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>33</v>
       </c>
@@ -2305,7 +2379,7 @@
       <c r="P34" s="8"/>
       <c r="W34" s="8"/>
     </row>
-    <row r="35" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>MAX(C35:DE35)</f>
         <v>2</v>
@@ -2344,10 +2418,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>MAX(C36:DE36)</f>
-        <v>2</v>
+        <v>259200</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
@@ -2383,11 +2457,18 @@
       <c r="AB36">
         <v>-1</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF36">
+        <v>259200</v>
+      </c>
+      <c r="AG36">
+        <f>AF36/60</f>
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>MAX(C37:DE37)</f>
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -2423,8 +2504,12 @@
       <c r="AB37">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG37">
+        <f>AG36/60</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -2440,7 +2525,7 @@
       <c r="P38" s="8"/>
       <c r="W38" s="8"/>
     </row>
-    <row r="39" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>36</v>
       </c>
@@ -2462,7 +2547,7 @@
       <c r="P39" s="8"/>
       <c r="W39" s="8"/>
     </row>
-    <row r="40" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>MAX(C40:DE40)</f>
         <v>2</v>
@@ -2488,7 +2573,7 @@
       </c>
       <c r="W40" s="8"/>
     </row>
-    <row r="41" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>MAX(C41:DE41)</f>
         <v>2</v>
@@ -2520,7 +2605,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>MAX(C42:DE42)</f>
         <v>2</v>
@@ -2552,7 +2637,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -2574,7 +2659,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>37</v>
       </c>
@@ -2596,9 +2681,9 @@
       <c r="P44" s="8"/>
       <c r="W44" s="8"/>
     </row>
-    <row r="45" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" ref="A45:A50" si="5">MAX(C45:DE45)</f>
+        <f t="shared" ref="A45:A50" si="9">MAX(C45:DE45)</f>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="B45" t="s">
@@ -2655,9 +2740,9 @@
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
     </row>
-    <row r="46" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="B46" t="s">
@@ -2718,9 +2803,9 @@
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
     </row>
-    <row r="47" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="B47" t="s">
@@ -2765,9 +2850,9 @@
       <c r="AB47" s="7"/>
       <c r="AC47" s="7"/>
     </row>
-    <row r="48" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="B48" t="s">
@@ -2797,9 +2882,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="B49" t="s">
@@ -2829,9 +2914,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="B50" t="s">
@@ -2858,7 +2943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -2874,7 +2959,7 @@
       <c r="P51" s="8"/>
       <c r="W51" s="8"/>
     </row>
-    <row r="52" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -2890,7 +2975,7 @@
       <c r="P52" s="8"/>
       <c r="W52" s="8"/>
     </row>
-    <row r="53" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -2906,7 +2991,7 @@
       <c r="P53" s="8"/>
       <c r="W53" s="8"/>
     </row>
-    <row r="54" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -2922,7 +3007,7 @@
       <c r="P54" s="8"/>
       <c r="W54" s="8"/>
     </row>
-    <row r="56" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -2938,7 +3023,7 @@
       <c r="P56" s="9"/>
       <c r="W56" s="9"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="10"/>
@@ -2953,7 +3038,7 @@
       <c r="N58" s="10"/>
       <c r="T58" s="4"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="10"/>
@@ -2968,235 +3053,259 @@
       <c r="N59" s="10"/>
       <c r="T59" s="4"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D60" s="7" t="str">
-        <f t="shared" ref="D60:AE60" si="6">D5</f>
+        <f t="shared" ref="D60:AE60" si="10">D5</f>
         <v>Kerbal</v>
       </c>
       <c r="E60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>ColonyHub</v>
       </c>
       <c r="F60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Terraformer</v>
       </c>
       <c r="G60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Terraformer</v>
       </c>
       <c r="H60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Terraformer</v>
       </c>
       <c r="I60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Kerbitat</v>
       </c>
       <c r="J60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Greenhouse</v>
       </c>
       <c r="K60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>BioLab</v>
       </c>
       <c r="L60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>BioLab</v>
       </c>
       <c r="M60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>MedLab</v>
       </c>
       <c r="N60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Refinery</v>
       </c>
       <c r="O60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Refinery</v>
       </c>
       <c r="P60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Refinery</v>
       </c>
       <c r="Q60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fabricator</v>
       </c>
       <c r="R60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fabricator</v>
       </c>
       <c r="S60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fabricator</v>
       </c>
       <c r="T60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Factory</v>
       </c>
       <c r="U60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Factory</v>
       </c>
       <c r="V60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Factory</v>
       </c>
       <c r="W60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>RepairShop</v>
       </c>
       <c r="X60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>MachineryPlant</v>
       </c>
       <c r="Y60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>MachineryPlant</v>
       </c>
       <c r="Z60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>MachineryPlant</v>
       </c>
       <c r="AA60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>RepairShop</v>
       </c>
       <c r="AB60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>RepairShop</v>
       </c>
       <c r="AC60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>RepairShop</v>
       </c>
       <c r="AD60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>WorkShop</v>
       </c>
       <c r="AE60" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Storage Hut</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF60" s="7" t="str">
+        <f t="shared" ref="AF60:AG60" si="11">AF5</f>
+        <v>Harvester</v>
+      </c>
+      <c r="AG60" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>Assembly Plant</v>
+      </c>
+      <c r="AH60" s="7" t="str">
+        <f t="shared" ref="AH60" si="12">AH5</f>
+        <v>PDU</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D61" s="7" t="str">
-        <f t="shared" ref="D61:AE61" si="7">D6</f>
+        <f t="shared" ref="D61:AE61" si="13">D6</f>
         <v>NA</v>
       </c>
       <c r="E61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="F61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Purify</v>
       </c>
       <c r="G61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Cultivate</v>
       </c>
       <c r="H61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>WaterPlant</v>
       </c>
       <c r="I61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="J61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="K61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>BioMass</v>
       </c>
       <c r="L61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Compost</v>
       </c>
       <c r="M61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="N61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Metal</v>
       </c>
       <c r="O61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Chemical</v>
       </c>
       <c r="P61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Polymer</v>
       </c>
       <c r="Q61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Plastic</v>
       </c>
       <c r="R61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Mechanical</v>
       </c>
       <c r="S61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Electronic</v>
       </c>
       <c r="T61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Modular</v>
       </c>
       <c r="U61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Computers</v>
       </c>
       <c r="V61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Robotics</v>
       </c>
       <c r="W61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Recycle</v>
       </c>
       <c r="X61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>BM</v>
       </c>
       <c r="Y61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>AM</v>
       </c>
       <c r="Z61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>SM</v>
       </c>
       <c r="AA61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>PK</v>
       </c>
       <c r="AB61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>RK</v>
       </c>
       <c r="AC61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>RP</v>
       </c>
       <c r="AD61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="AE61" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF61" s="7" t="str">
+        <f t="shared" ref="AF61:AG61" si="14">AF6</f>
+        <v>NA</v>
+      </c>
+      <c r="AG61" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="AH61" s="7" t="str">
+        <f t="shared" ref="AH61" si="15">AH6</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D62" s="7">
         <v>3</v>
       </c>
@@ -3281,14 +3390,23 @@
       <c r="AE62" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>SUM(D64:AE64)</f>
         <v>0</v>
@@ -3297,1288 +3415,1408 @@
         <v>9</v>
       </c>
       <c r="D64" s="7">
-        <f t="shared" ref="D64:D104" si="8">D10*QTY_D</f>
+        <f t="shared" ref="D64:D104" si="16">D10*QTY_D</f>
         <v>3</v>
       </c>
       <c r="E64" s="7">
-        <f t="shared" ref="E64:E104" si="9">E10*QTY_E</f>
+        <f t="shared" ref="E64:E104" si="17">E10*QTY_E</f>
         <v>0</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" ref="F64:F104" si="10">F10*QTY_F</f>
+        <f t="shared" ref="F64:F104" si="18">F10*QTY_F</f>
         <v>0</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" ref="G64:G104" si="11">G10*QTY_G</f>
+        <f t="shared" ref="G64:G104" si="19">G10*QTY_G</f>
         <v>0</v>
       </c>
       <c r="H64" s="7">
-        <f t="shared" ref="H64:H104" si="12">H10*QTY_H</f>
+        <f t="shared" ref="H64:H104" si="20">H10*QTY_H</f>
         <v>0</v>
       </c>
       <c r="I64" s="7">
-        <f t="shared" ref="I64:I104" si="13">I10*QTY_I</f>
+        <f t="shared" ref="I64:I104" si="21">I10*QTY_I</f>
         <v>-3</v>
       </c>
       <c r="J64" s="7">
-        <f t="shared" ref="J64:J104" si="14">J10*QTY_J</f>
+        <f t="shared" ref="J64:J104" si="22">J10*QTY_J</f>
         <v>0</v>
       </c>
       <c r="K64" s="7">
-        <f t="shared" ref="K64:K104" si="15">K10*QTY_K</f>
+        <f t="shared" ref="K64:K104" si="23">K10*QTY_K</f>
         <v>0</v>
       </c>
       <c r="L64" s="7">
-        <f t="shared" ref="L64:L104" si="16">L10*QTY_L</f>
+        <f t="shared" ref="L64:L104" si="24">L10*QTY_L</f>
         <v>0</v>
       </c>
       <c r="M64" s="7">
-        <f t="shared" ref="M64:M104" si="17">M10*QTY_M</f>
+        <f t="shared" ref="M64:M104" si="25">M10*QTY_M</f>
         <v>0</v>
       </c>
       <c r="N64" s="7">
-        <f t="shared" ref="N64:N104" si="18">N10*QTY_N</f>
+        <f t="shared" ref="N64:N104" si="26">N10*QTY_N</f>
         <v>0</v>
       </c>
       <c r="O64" s="7">
-        <f t="shared" ref="O64:O104" si="19">O10*QTY_O</f>
+        <f t="shared" ref="O64:O104" si="27">O10*QTY_O</f>
         <v>0</v>
       </c>
       <c r="P64" s="7">
-        <f t="shared" ref="P64:P104" si="20">P10*QTY_P</f>
+        <f t="shared" ref="P64:P104" si="28">P10*QTY_P</f>
         <v>0</v>
       </c>
       <c r="Q64" s="7">
-        <f t="shared" ref="Q64:Q104" si="21">Q10*QTY_Q</f>
+        <f t="shared" ref="Q64:Q104" si="29">Q10*QTY_Q</f>
         <v>0</v>
       </c>
       <c r="R64" s="7">
-        <f t="shared" ref="R64:R104" si="22">R10*QTY_R</f>
+        <f t="shared" ref="R64:R104" si="30">R10*QTY_R</f>
         <v>0</v>
       </c>
       <c r="S64" s="7">
-        <f t="shared" ref="S64:S104" si="23">S10*QTY_S</f>
+        <f t="shared" ref="S64:S104" si="31">S10*QTY_S</f>
         <v>0</v>
       </c>
       <c r="T64" s="7">
-        <f t="shared" ref="T64:T104" si="24">T10*QTY_T</f>
+        <f t="shared" ref="T64:T104" si="32">T10*QTY_T</f>
         <v>0</v>
       </c>
       <c r="U64" s="7">
-        <f t="shared" ref="U64:U104" si="25">U10*QTY_U</f>
+        <f t="shared" ref="U64:U104" si="33">U10*QTY_U</f>
         <v>0</v>
       </c>
       <c r="V64" s="7">
-        <f t="shared" ref="V64:V104" si="26">V10*QTY_V</f>
+        <f t="shared" ref="V64:V104" si="34">V10*QTY_V</f>
         <v>0</v>
       </c>
       <c r="W64" s="7">
-        <f t="shared" ref="W64:W104" si="27">W10*QTY_W</f>
+        <f t="shared" ref="W64:W104" si="35">W10*QTY_W</f>
         <v>0</v>
       </c>
       <c r="X64" s="7">
-        <f t="shared" ref="X64:X73" si="28">X10*QTY_X</f>
+        <f t="shared" ref="X64:X73" si="36">X10*QTY_X</f>
         <v>0</v>
       </c>
       <c r="Y64" s="7">
-        <f t="shared" ref="Y64:Y73" si="29">Y10*QTY_Y</f>
+        <f t="shared" ref="Y64:Y73" si="37">Y10*QTY_Y</f>
         <v>0</v>
       </c>
       <c r="Z64" s="7">
-        <f t="shared" ref="Z64:AC73" si="30">Z10*QTY_Z</f>
+        <f t="shared" ref="Z64:AC73" si="38">Z10*QTY_Z</f>
         <v>0</v>
       </c>
       <c r="AA64" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB64" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AC64" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD64" s="7">
-        <f t="shared" ref="AD64:AD73" si="31">AD10*QTY_AB</f>
+        <f t="shared" ref="AD64:AD73" si="39">AD10*QTY_AB</f>
         <v>0</v>
       </c>
       <c r="AE64" s="7">
-        <f t="shared" ref="AE64:AE73" si="32">AE10*QTY_AC</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AE64:AF73" si="40">AE10*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="7">
+        <f t="shared" ref="AG64:AH64" si="41">AG10*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH64" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" ref="A65:A104" si="33">SUM(D65:AE65)</f>
+        <f t="shared" ref="A65:A104" si="42">SUM(D65:AE65)</f>
         <v>-19</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E65" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-25</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H65" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I65" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J65" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="K65" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L65" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M65" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N65" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O65" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P65" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q65" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R65" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S65" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T65" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U65" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V65" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W65" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X65" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y65" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z65" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AA65" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB65" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AC65" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD65" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AE65" s="7">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="7">
+        <f t="shared" ref="AG65:AH65" si="43">AG11*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH65" s="7">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E66" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G66" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H66" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J66" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-3</v>
       </c>
       <c r="K66" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L66" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M66" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N66" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O66" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P66" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q66" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R66" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S66" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T66" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U66" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V66" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W66" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X66" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y66" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z66" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AA66" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB66" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AC66" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD66" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AE66" s="7">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="7">
+        <f t="shared" ref="AG66:AH66" si="44">AG12*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH66" s="7">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>19</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-3</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="G67" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H67" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I67" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J67" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-3</v>
       </c>
       <c r="K67" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L67" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N67" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O67" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P67" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q67" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R67" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S67" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T67" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U67" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V67" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W67" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X67" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y67" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z67" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AA67" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB67" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AC67" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD67" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AE67" s="7">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="7">
+        <f t="shared" ref="AG67:AH67" si="45">AG13*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH67" s="7">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G68" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H68" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J68" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K68" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L68" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M68" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N68" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O68" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P68" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q68" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R68" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S68" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T68" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U68" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V68" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W68" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X68" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y68" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z68" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AA68" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB68" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AC68" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD68" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AE68" s="7">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="7">
+        <f t="shared" ref="AG68:AH68" si="46">AG14*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH68" s="7">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B69" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G69" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H69" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I69" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J69" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K69" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L69" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M69" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N69" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O69" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P69" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q69" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R69" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S69" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T69" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U69" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V69" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W69" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X69" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y69" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z69" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AA69" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB69" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AC69" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD69" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AE69" s="7">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF69" s="7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AG69" s="7">
+        <f t="shared" ref="AG69:AH69" si="47">AG15*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH69" s="7">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B70" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G70" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H70" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J70" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K70" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L70" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M70" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N70" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O70" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P70" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q70" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R70" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S70" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T70" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U70" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V70" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W70" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X70" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y70" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z70" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AA70" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB70" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AC70" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD70" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AE70" s="7">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="7">
+        <f t="shared" ref="AG70:AH70" si="48">AG16*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH70" s="7">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B71" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G71" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H71" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J71" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K71" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L71" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M71" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N71" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O71" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P71" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q71" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R71" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S71" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T71" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U71" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V71" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W71" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X71" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y71" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z71" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AA71" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB71" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AC71" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD71" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AE71" s="7">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="7">
+        <f t="shared" ref="AG71:AH71" si="49">AG17*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH71" s="7">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>22</v>
       </c>
       <c r="B72" t="s">
         <v>29</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="G72" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H72" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-1</v>
       </c>
       <c r="J72" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="K72" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L72" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M72" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N72" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O72" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P72" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q72" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R72" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S72" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T72" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U72" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V72" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W72" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X72" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y72" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z72" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AA72" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB72" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AC72" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD72" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AE72" s="7">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF72" s="7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AG72" s="7">
+        <f t="shared" ref="AG72:AH72" si="50">AG18*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH72" s="7">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.2</v>
       </c>
       <c r="B73" t="s">
         <v>101</v>
       </c>
       <c r="D73" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.05</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="G73" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H73" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I73" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.05</v>
       </c>
       <c r="J73" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.05</v>
       </c>
       <c r="K73" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L73" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M73" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N73" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O73" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P73" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q73" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R73" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S73" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T73" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U73" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V73" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W73" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X73" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y73" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z73" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AA73" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB73" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AC73" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD73" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AE73" s="7">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AF73" s="7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="7">
+        <f t="shared" ref="AG73:AH73" si="51">AG19*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH73" s="7">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74"/>
       <c r="D74" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G74" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H74" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I74" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J74" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K74" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L74" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M74" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N74" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O74" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P74" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q74" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R74" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S74" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T74" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U74" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V74" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W74" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X74" s="7"/>
@@ -4589,93 +4827,96 @@
       <c r="AC74" s="7"/>
       <c r="AD74" s="7"/>
       <c r="AE74" s="7"/>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF74" s="7"/>
+      <c r="AG74" s="7"/>
+      <c r="AH74" s="7"/>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D75" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F75" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G75" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H75" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I75" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J75" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K75" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L75" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M75" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N75" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O75" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P75" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q75" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R75" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S75" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T75" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U75" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V75" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W75" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X75" s="7"/>
@@ -4686,1419 +4927,1554 @@
       <c r="AC75" s="7"/>
       <c r="AD75" s="7"/>
       <c r="AE75" s="7"/>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF75" s="7"/>
+      <c r="AG75" s="7"/>
+      <c r="AH75" s="7"/>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B76" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-3</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F76" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G76" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H76" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I76" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J76" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="K76" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L76" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M76" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N76" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O76" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P76" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q76" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R76" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S76" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T76" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U76" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V76" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W76" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X76" s="7">
-        <f t="shared" ref="X76:X86" si="34">X22*QTY_X</f>
+        <f t="shared" ref="X76:X86" si="52">X22*QTY_X</f>
         <v>0</v>
       </c>
       <c r="Y76" s="7">
-        <f t="shared" ref="Y76:Y86" si="35">Y22*QTY_Y</f>
+        <f t="shared" ref="Y76:Y86" si="53">Y22*QTY_Y</f>
         <v>0</v>
       </c>
       <c r="Z76" s="7">
-        <f t="shared" ref="Z76:AC86" si="36">Z22*QTY_Z</f>
+        <f t="shared" ref="Z76:AC86" si="54">Z22*QTY_Z</f>
         <v>0</v>
       </c>
       <c r="AA76" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AB76" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AC76" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AD76" s="7">
-        <f t="shared" ref="AD76:AD86" si="37">AD22*QTY_AB</f>
+        <f t="shared" ref="AD76:AD86" si="55">AD22*QTY_AB</f>
         <v>0</v>
       </c>
       <c r="AE76" s="7">
-        <f t="shared" ref="AE76:AE86" si="38">AE22*QTY_AC</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AE76:AF86" si="56">AE22*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AF76" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AG76" s="7">
+        <f t="shared" ref="AG76:AH76" si="57">AG22*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH76" s="7">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F77" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G77" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H77" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I77" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="J77" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-3</v>
       </c>
       <c r="K77" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L77" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M77" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N77" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O77" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P77" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q77" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R77" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S77" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T77" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U77" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V77" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W77" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X77" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y77" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Z77" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AA77" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AB77" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AC77" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AD77" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AE77" s="7">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AF77" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AG77" s="7">
+        <f t="shared" ref="AG77:AH77" si="58">AG23*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH77" s="7">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B78" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G78" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H78" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I78" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J78" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K78" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L78" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M78" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N78" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O78" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P78" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q78" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R78" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S78" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T78" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U78" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V78" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W78" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X78" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y78" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Z78" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AA78" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AB78" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AC78" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AD78" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AE78" s="7">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AF78" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AG78" s="7">
+        <f t="shared" ref="AG78:AH78" si="59">AG24*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH78" s="7">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F79" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G79" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H79" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I79" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J79" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K79" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L79" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M79" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N79" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O79" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P79" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q79" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R79" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S79" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T79" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U79" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V79" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W79" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X79" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y79" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Z79" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AA79" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AB79" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AC79" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AD79" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AE79" s="7">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AF79" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AG79" s="7">
+        <f t="shared" ref="AG79:AH79" si="60">AG25*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH79" s="7">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G80" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H80" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I80" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J80" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K80" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L80" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M80" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N80" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O80" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P80" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q80" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R80" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S80" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T80" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U80" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V80" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W80" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X80" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y80" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Z80" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AA80" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AB80" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AC80" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AD80" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AE80" s="7">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AF80" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AG80" s="7">
+        <f t="shared" ref="AG80:AH80" si="61">AG26*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH80" s="7">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G81" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H81" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I81" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-3</v>
       </c>
       <c r="J81" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="K81" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L81" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M81" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N81" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O81" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P81" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q81" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R81" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S81" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T81" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U81" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V81" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W81" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X81" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y81" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Z81" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AA81" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AB81" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AC81" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AD81" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AE81" s="7">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AF81" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AG81" s="7">
+        <f t="shared" ref="AG81:AH81" si="62">AG27*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH81" s="7">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-3</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G82" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H82" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I82" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="J82" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K82" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L82" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M82" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N82" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O82" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P82" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q82" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R82" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S82" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T82" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U82" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V82" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W82" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X82" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y82" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Z82" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AA82" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AB82" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AC82" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AD82" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AE82" s="7">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AF82" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AG82" s="7">
+        <f t="shared" ref="AG82:AH82" si="63">AG28*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH82" s="7">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B83" t="s">
         <v>19</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G83" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H83" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I83" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J83" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K83" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L83" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M83" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N83" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O83" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P83" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q83" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R83" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S83" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T83" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U83" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V83" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W83" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X83" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y83" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Z83" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AA83" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AB83" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AC83" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AD83" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AE83" s="7">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AF83" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AG83" s="7">
+        <f t="shared" ref="AG83:AH83" si="64">AG29*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH83" s="7">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B84" t="s">
         <v>39</v>
       </c>
       <c r="D84" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G84" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H84" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I84" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J84" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K84" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L84" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M84" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N84" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O84" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P84" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q84" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R84" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S84" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T84" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U84" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V84" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W84" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X84" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y84" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Z84" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AA84" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AB84" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AC84" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AD84" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AE84" s="7">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AF84" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AG84" s="7">
+        <f t="shared" ref="AG84:AH84" si="65">AG30*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH84" s="7">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B85" t="s">
         <v>49</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G85" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H85" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I85" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J85" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K85" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L85" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M85" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N85" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O85" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P85" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q85" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R85" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S85" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T85" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U85" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V85" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W85" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X85" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y85" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Z85" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AA85" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AB85" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AC85" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AD85" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AE85" s="7">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AF85" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AG85" s="7">
+        <f t="shared" ref="AG85:AH85" si="66">AG31*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH85" s="7">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B86" t="s">
         <v>57</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F86" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G86" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H86" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I86" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J86" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K86" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L86" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M86" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N86" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O86" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P86" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q86" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R86" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S86" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T86" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U86" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V86" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W86" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X86" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y86" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Z86" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AA86" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AB86" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AC86" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AD86" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AE86" s="7">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AF86" s="7">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AG86" s="7">
+        <f t="shared" ref="AG86:AH86" si="67">AG32*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH86" s="7">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87"/>
       <c r="D87" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F87" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G87" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H87" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I87" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J87" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K87" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L87" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M87" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N87" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O87" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P87" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q87" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R87" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S87" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T87" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U87" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V87" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W87" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X87" s="7"/>
@@ -6109,93 +6485,96 @@
       <c r="AC87" s="7"/>
       <c r="AD87" s="7"/>
       <c r="AE87" s="7"/>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF87" s="7"/>
+      <c r="AG87" s="7"/>
+      <c r="AH87" s="7"/>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F88" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G88" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H88" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I88" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J88" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K88" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L88" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M88" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N88" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O88" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P88" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q88" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R88" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S88" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T88" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U88" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V88" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W88" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X88" s="7"/>
@@ -6206,93 +6585,96 @@
       <c r="AC88" s="7"/>
       <c r="AD88" s="7"/>
       <c r="AE88" s="7"/>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF88" s="7"/>
+      <c r="AG88" s="7"/>
+      <c r="AH88" s="7"/>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
       </c>
       <c r="D89" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E89" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F89" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G89" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H89" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I89" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J89" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K89" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L89" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M89" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N89" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O89" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P89" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q89" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R89" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S89" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T89" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U89" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V89" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W89" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X89" s="7">
@@ -6304,19 +6686,19 @@
         <v>0</v>
       </c>
       <c r="Z89" s="7">
-        <f t="shared" ref="Z89:AC91" si="39">Z35*QTY_Z</f>
+        <f t="shared" ref="Z89:AC91" si="68">Z35*QTY_Z</f>
         <v>0</v>
       </c>
       <c r="AA89" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AB89" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AC89" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AD89" s="7">
@@ -6327,93 +6709,105 @@
         <f>AE35*QTY_AC</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF89" s="7">
+        <f>AF35*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AG89" s="7">
+        <f>AG35*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH89" s="7">
+        <f>AH35*QTY_AC</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B90" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E90" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F90" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G90" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H90" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I90" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J90" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K90" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L90" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M90" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N90" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O90" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P90" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q90" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R90" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S90" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T90" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U90" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V90" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W90" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X90" s="7">
@@ -6425,19 +6819,19 @@
         <v>0</v>
       </c>
       <c r="Z90" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AA90" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AB90" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AC90" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AD90" s="7">
@@ -6448,93 +6842,105 @@
         <f>AE36*QTY_AC</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF90" s="7">
+        <f>AF36*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AG90" s="7">
+        <f>AG36*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH90" s="7">
+        <f>AH36*QTY_AC</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B91" t="s">
         <v>22</v>
       </c>
       <c r="D91" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E91" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F91" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G91" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H91" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I91" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J91" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K91" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L91" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M91" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N91" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O91" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P91" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q91" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R91" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S91" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T91" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U91" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V91" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W91" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X91" s="7">
@@ -6546,19 +6952,19 @@
         <v>0</v>
       </c>
       <c r="Z91" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AA91" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AB91" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AC91" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AD91" s="7">
@@ -6569,88 +6975,100 @@
         <f>AE37*QTY_AC</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF91" s="7">
+        <f>AF37*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AG91" s="7">
+        <f>AG37*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH91" s="7">
+        <f>AH37*QTY_AC</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
       <c r="D92" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E92" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F92" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G92" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H92" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I92" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J92" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K92" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L92" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M92" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N92" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O92" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P92" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q92" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R92" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S92" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T92" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U92" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V92" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W92" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X92" s="7"/>
@@ -6661,93 +7079,96 @@
       <c r="AC92" s="7"/>
       <c r="AD92" s="7"/>
       <c r="AE92" s="7"/>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF92" s="7"/>
+      <c r="AG92" s="7"/>
+      <c r="AH92" s="7"/>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D93" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E93" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F93" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G93" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H93" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I93" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J93" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K93" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L93" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M93" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N93" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O93" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P93" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q93" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R93" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S93" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T93" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U93" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V93" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W93" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X93" s="7"/>
@@ -6758,93 +7179,96 @@
       <c r="AC93" s="7"/>
       <c r="AD93" s="7"/>
       <c r="AE93" s="7"/>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF93" s="7"/>
+      <c r="AG93" s="7"/>
+      <c r="AH93" s="7"/>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B94" t="s">
         <v>24</v>
       </c>
       <c r="D94" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E94" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F94" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H94" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I94" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J94" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K94" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L94" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M94" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N94" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O94" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P94" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q94" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R94" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S94" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T94" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U94" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V94" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W94" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X94" s="7">
@@ -6856,19 +7280,19 @@
         <v>0</v>
       </c>
       <c r="Z94" s="7">
-        <f t="shared" ref="Z94:AC96" si="40">Z40*QTY_Z</f>
+        <f t="shared" ref="Z94:AC96" si="69">Z40*QTY_Z</f>
         <v>0</v>
       </c>
       <c r="AA94" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AB94" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AC94" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AD94" s="7">
@@ -6879,93 +7303,105 @@
         <f>AE40*QTY_AC</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF94" s="7">
+        <f>AF40*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AG94" s="7">
+        <f>AG40*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH94" s="7">
+        <f>AH40*QTY_AC</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B95" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E95" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F95" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G95" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H95" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I95" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J95" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K95" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L95" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M95" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N95" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O95" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P95" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q95" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R95" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S95" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T95" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U95" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V95" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W95" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X95" s="7">
@@ -6977,19 +7413,19 @@
         <v>0</v>
       </c>
       <c r="Z95" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AA95" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AB95" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AC95" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AD95" s="7">
@@ -7000,93 +7436,105 @@
         <f>AE41*QTY_AC</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF95" s="7">
+        <f>AF41*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AG95" s="7">
+        <f>AG41*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH95" s="7">
+        <f>AH41*QTY_AC</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B96" t="s">
         <v>23</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E96" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F96" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G96" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H96" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I96" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J96" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K96" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L96" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M96" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N96" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O96" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P96" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q96" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R96" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S96" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T96" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U96" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V96" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W96" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X96" s="7">
@@ -7098,19 +7546,19 @@
         <v>0</v>
       </c>
       <c r="Z96" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AA96" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AB96" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AC96" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AD96" s="7">
@@ -7121,88 +7569,100 @@
         <f>AE42*QTY_AC</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF96" s="7">
+        <f>AF42*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AG96" s="7">
+        <f>AG42*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH96" s="7">
+        <f>AH42*QTY_AC</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97"/>
       <c r="D97" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E97" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F97" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G97" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H97" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I97" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J97" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K97" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L97" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M97" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N97" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O97" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P97" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q97" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R97" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S97" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T97" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U97" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V97" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W97" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X97" s="7"/>
@@ -7213,93 +7673,96 @@
       <c r="AC97" s="7"/>
       <c r="AD97" s="7"/>
       <c r="AE97" s="7"/>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF97" s="7"/>
+      <c r="AG97" s="7"/>
+      <c r="AH97" s="7"/>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D98" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E98" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F98" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G98" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H98" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I98" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J98" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K98" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L98" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M98" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N98" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O98" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P98" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q98" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R98" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S98" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T98" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U98" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V98" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W98" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X98" s="7"/>
@@ -7310,742 +7773,817 @@
       <c r="AC98" s="7"/>
       <c r="AD98" s="7"/>
       <c r="AE98" s="7"/>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF98" s="7"/>
+      <c r="AG98" s="7"/>
+      <c r="AH98" s="7"/>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>-0.125</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E99" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>-0.05</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="G99" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H99" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I99" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="J99" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K99" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L99" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M99" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N99" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O99" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P99" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q99" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R99" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S99" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T99" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U99" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V99" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W99" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X99" s="7">
-        <f t="shared" ref="X99:X104" si="41">X45*QTY_X</f>
+        <f t="shared" ref="X99:X104" si="70">X45*QTY_X</f>
         <v>0</v>
       </c>
       <c r="Y99" s="7">
-        <f t="shared" ref="Y99:Y104" si="42">Y45*QTY_Y</f>
+        <f t="shared" ref="Y99:Y104" si="71">Y45*QTY_Y</f>
         <v>0</v>
       </c>
       <c r="Z99" s="7">
-        <f t="shared" ref="Z99:AC104" si="43">Z45*QTY_Z</f>
+        <f t="shared" ref="Z99:AC104" si="72">Z45*QTY_Z</f>
         <v>0</v>
       </c>
       <c r="AA99" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AB99" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AC99" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AD99" s="7">
-        <f t="shared" ref="AD99:AD104" si="44">AD45*QTY_AB</f>
+        <f t="shared" ref="AD99:AD104" si="73">AD45*QTY_AB</f>
         <v>0</v>
       </c>
       <c r="AE99" s="7">
-        <f t="shared" ref="AE99:AE104" si="45">AE45*QTY_AC</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AE99:AF104" si="74">AE45*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AF99" s="7">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AG99" s="7">
+        <f t="shared" ref="AG99:AH99" si="75">AG45*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH99" s="7">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>-7.5000000000000011E-2</v>
       </c>
       <c r="B100" t="s">
         <v>92</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E100" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F100" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="G100" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H100" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I100" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="J100" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="K100" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L100" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M100" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N100" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O100" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P100" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q100" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R100" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S100" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T100" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U100" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V100" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W100" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X100" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Y100" s="7">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Z100" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AA100" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB100" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AC100" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AD100" s="7">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE100" s="7">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF100" s="7">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AG100" s="7">
+        <f t="shared" ref="AG100:AH100" si="76">AG46*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH100" s="7">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A101">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="Z100" s="7">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AA100" s="7">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AB100" s="7">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AC100" s="7">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AD100" s="7">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AE100" s="7">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="B101" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E101" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F101" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G101" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H101" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I101" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J101" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K101" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L101" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M101" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N101" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O101" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P101" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q101" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R101" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S101" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T101" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U101" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V101" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W101" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X101" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Y101" s="7">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Z101" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AA101" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB101" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AC101" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AD101" s="7">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE101" s="7">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF101" s="7">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AG101" s="7">
+        <f t="shared" ref="AG101:AH101" si="77">AG47*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH101" s="7">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A102">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="Z101" s="7">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AA101" s="7">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AB101" s="7">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AC101" s="7">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AD101" s="7">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AE101" s="7">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="B102" t="s">
         <v>38</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E102" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G102" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H102" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I102" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J102" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K102" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L102" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M102" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N102" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O102" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P102" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q102" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R102" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S102" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T102" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U102" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V102" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W102" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X102" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Y102" s="7">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Z102" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AA102" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB102" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AC102" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AD102" s="7">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE102" s="7">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF102" s="7">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AG102" s="7">
+        <f t="shared" ref="AG102:AH102" si="78">AG48*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH102" s="7">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A103">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="Z102" s="7">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AA102" s="7">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AB102" s="7">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AC102" s="7">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AD102" s="7">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AE102" s="7">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="B103" t="s">
         <v>46</v>
       </c>
       <c r="D103" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E103" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F103" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G103" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H103" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I103" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J103" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K103" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L103" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M103" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N103" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O103" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P103" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q103" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R103" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S103" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T103" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U103" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V103" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W103" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X103" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Y103" s="7">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Z103" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AA103" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AB103" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AC103" s="7">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AD103" s="7">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE103" s="7">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF103" s="7">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AG103" s="7">
+        <f t="shared" ref="AG103:AH103" si="79">AG49*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH103" s="7">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A104">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="Z103" s="7">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AA103" s="7">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AB103" s="7">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AC103" s="7">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AD103" s="7">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AE103" s="7">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="B104" t="s">
         <v>47</v>
       </c>
       <c r="D104" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E104" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F104" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G104" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H104" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I104" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J104" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K104" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L104" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M104" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N104" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O104" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P104" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q104" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R104" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S104" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T104" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U104" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V104" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W104" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X104" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Y104" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="Z104" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AA104" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AB104" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AC104" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AD104" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="AE104" s="7">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF104" s="7">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AG104" s="7">
+        <f t="shared" ref="AG104:AH104" si="80">AG50*QTY_AC</f>
+        <v>0</v>
+      </c>
+      <c r="AH104" s="7">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
     </row>
@@ -8065,8 +8603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:XFD57"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8597,10 +9135,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C56"/>
+  <dimension ref="B3:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8612,52 +9150,70 @@
     <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>136</v>
       </c>
